--- a/stock_historical_data/1wk/KPIL.NS.xlsx
+++ b/stock_historical_data/1wk/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,60 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1223.800048828125</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1201.849975585938</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1201.849975585938</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1201.849975585938</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>23</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KPIL.NS.xlsx
+++ b/stock_historical_data/1wk/KPIL.NS.xlsx
@@ -3382,7 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KPIL.NS.xlsx
+++ b/stock_historical_data/1wk/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>2</v>
       </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,63 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1269.650024414062</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1309.150024414062</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1278.099975585938</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1278.099975585938</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>24</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KPIL.NS.xlsx
+++ b/stock_historical_data/1wk/KPIL.NS.xlsx
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3605,7 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KPIL.NS.xlsx
+++ b/stock_historical_data/1wk/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,6 +3609,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1254.949951171875</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1156.849975585938</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1149.02490234375</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7030794</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>17</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>25</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1156.849975585938</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1150.25</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1175.699951171875</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1175.699951171875</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3595910</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>26</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/KPIL.NS.xlsx
+++ b/stock_historical_data/1wk/KPIL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,7 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3715,7 +3717,1649 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1179.900024414062</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1256.449951171875</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1228</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>3562236</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>27</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1237.949951171875</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1229.949951171875</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1357.699951171875</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>6007850</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>28</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1427.849975585938</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1294.900024414062</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1336.300048828125</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>2997055</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>29</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1341.400024414062</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1369.699951171875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1361.150024414062</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>1170310</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>22</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>30</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1384</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1395.699951171875</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1290</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1350.949951171875</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1823317</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>29</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>31</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1271.050048828125</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1345</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1189</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1240.949951171875</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>1313252</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>32</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1222.099975585938</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1269.900024414062</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1221.150024414062</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>744467</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>33</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1226.150024414062</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1317.349975585938</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1298.25</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>1962311</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>19</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>34</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1370.949951171875</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1275.550048828125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1347.550048828125</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>727184</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>26</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>35</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1357.550048828125</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1397.900024414062</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2182199</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>36</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1398.900024414062</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1404.550048828125</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1380.800048828125</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>937386</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>37</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1408.599975585938</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1328.400024414062</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1335.050048828125</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>686827</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>16</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>38</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1438.050048828125</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1287.25</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1407.550048828125</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>1148773</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>23</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1426.949951171875</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1269.550048828125</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1347.900024414062</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1572661</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>30</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>40</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1357.75</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1364.300048828125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1278.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1320.050048828125</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1397053</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>7</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>41</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1320.050048828125</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1337.900024414062</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1266.650024414062</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1294.650024414062</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>1928193</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>42</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1303.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1171.050048828125</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1183.650024414062</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>427550</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J75" t="n">
+        <v>21</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>43</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1156.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1293.650024414062</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>1460934</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>28</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>44</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1289.050048828125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1222</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1246.900024414062</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>599161</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I77" t="n">
+        <v>11</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>45</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1270.75</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>410371</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>46</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1199.849975585938</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1217.800048828125</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1122.099975585938</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>467827</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="n">
+        <v>11</v>
+      </c>
+      <c r="J79" t="n">
+        <v>18</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>47</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1138.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1170.050048828125</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1114.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1140.050048828125</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>1647418</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>25</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>48</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1154.900024414062</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1284.900024414062</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1120.050048828125</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1271.25</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>5595538</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>49</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1325.699951171875</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1303.900024414062</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>2007327</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>50</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1303.900024414062</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1352.849975585938</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1267</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>1383706</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12</v>
+      </c>
+      <c r="J83" t="n">
+        <v>16</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>51</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1270.099975585938</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1325.050048828125</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1241.199951171875</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1314.75</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>642829</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I84" t="n">
+        <v>12</v>
+      </c>
+      <c r="J84" t="n">
+        <v>23</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>52</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1311.849975585938</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1264.699951171875</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1281.849975585938</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>1833773</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>30</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1294.75</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1294.849975585938</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1203.650024414062</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>1457642</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1182.050048828125</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1213.400024414062</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1141.25</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1178.599975585938</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>1261892</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>13</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1172</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1197.900024414062</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1055.099975585938</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>1260381</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1055.150024414062</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1084.199951171875</v>
+      </c>
+      <c r="D89" t="n">
+        <v>976.1500244140625</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1028.300048828125</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>1338578</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>27</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D90" t="n">
+        <v>979.0499877929688</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1040.650024414062</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>1554747</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1042.050048828125</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1048.949951171875</v>
+      </c>
+      <c r="D91" t="n">
+        <v>852.5999755859375</v>
+      </c>
+      <c r="E91" t="n">
+        <v>879.5499877929688</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>3646345</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>7</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B92" t="n">
+        <v>880.9500122070312</v>
+      </c>
+      <c r="C92" t="n">
+        <v>964</v>
+      </c>
+      <c r="D92" t="n">
+        <v>845.2999877929688</v>
+      </c>
+      <c r="E92" t="n">
+        <v>919.5999755859375</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>3022716</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>17</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B93" t="n">
+        <v>913.0999755859375</v>
+      </c>
+      <c r="C93" t="n">
+        <v>936.8499755859375</v>
+      </c>
+      <c r="D93" t="n">
+        <v>856.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>879.1500244140625</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>2780289</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>24</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>9</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KPIL.NS.xlsx
+++ b/stock_historical_data/1wk/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5151,7 +5151,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5203,7 +5205,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5255,7 +5259,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5307,7 +5313,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5359,7 +5367,217 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B94" t="n">
+        <v>879</v>
+      </c>
+      <c r="C94" t="n">
+        <v>979</v>
+      </c>
+      <c r="D94" t="n">
+        <v>821.2999877929688</v>
+      </c>
+      <c r="E94" t="n">
+        <v>931.2000122070312</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>11158913</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>10</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B95" t="n">
+        <v>926</v>
+      </c>
+      <c r="C95" t="n">
+        <v>945</v>
+      </c>
+      <c r="D95" t="n">
+        <v>852.75</v>
+      </c>
+      <c r="E95" t="n">
+        <v>856.6500244140625</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>1447025</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>11</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B96" t="n">
+        <v>865</v>
+      </c>
+      <c r="C96" t="n">
+        <v>983.9000244140625</v>
+      </c>
+      <c r="D96" t="n">
+        <v>854</v>
+      </c>
+      <c r="E96" t="n">
+        <v>973.5499877929688</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>2506997</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>17</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>12</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B97" t="n">
+        <v>975</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1078.849975585938</v>
+      </c>
+      <c r="D97" t="n">
+        <v>891.7000122070312</v>
+      </c>
+      <c r="E97" t="n">
+        <v>974.5</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>4756624</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>13</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
